--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dd/Dd_Github/管理表/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dd/Dd_Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="47260" yWindow="-540" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,12 +800,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +859,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -876,22 +870,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1190,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1526,45 +1514,14 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I27" s="3" t="s">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="47260" yWindow="-540" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -202,16 +202,6 @@
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-产品设计（V1.1）</t>
-    <rPh sb="0" eb="1">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>she'ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,6 +737,56 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>zhang'jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间块</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantastical 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间提醒解决方案</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计_实践</t>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'cheng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,9 +877,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -883,7 +925,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -904,6 +946,8 @@
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1178,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -1262,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1270,47 +1314,47 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1320,20 +1364,14 @@
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1341,12 +1379,17 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1360,38 +1403,34 @@
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
+      <c r="A9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1402,10 +1441,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1422,9 +1461,7 @@
       <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1438,7 +1475,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1470,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1479,49 +1516,33 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="3"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1534,21 +1555,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1585,23 +1606,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1611,29 +1632,107 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
         <v>42705</v>
       </c>
       <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -202,16 +202,6 @@
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德州扑克（V1.0）</t>
-    <rPh sb="0" eb="1">
-      <t>de'zhou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pu'ke</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,6 +778,50 @@
     <rPh sb="1" eb="2">
       <t>wan'cheng</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从零开始做运营</t>
+    <rPh sb="0" eb="1">
+      <t>cong'ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习互联网运营</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu'lian'wnag</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营之光</t>
+    <rPh sb="0" eb="1">
+      <t>yun'ying'zhi'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,9 +911,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -925,7 +961,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -948,6 +984,8 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1222,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -1303,10 +1341,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -1314,24 +1352,30 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
+      <c r="A4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1339,13 +1383,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -1362,10 +1406,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1381,18 +1425,15 @@
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="3"/>
     </row>
@@ -1401,36 +1442,43 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
+      <c r="A9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1438,13 +1486,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1456,12 +1504,14 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1472,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1488,10 +1538,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1504,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>54</v>
@@ -1516,33 +1566,49 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
+      <c r="A15" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="3" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1558,7 +1624,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1606,23 +1672,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1632,23 +1698,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1658,23 +1724,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1684,23 +1750,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1713,20 +1779,20 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -14,7 +14,6 @@
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
     <sheet name="已完成" sheetId="2" r:id="rId2"/>
-    <sheet name="习惯签到" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -150,25 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依托刘润五分钟商学院完成初稿</t>
-    <rPh sb="0" eb="1">
-      <t>yi'tuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'run</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu'fen'zhong'shang'xue'yuan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chu'gao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成时间</t>
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
@@ -202,28 +182,6 @@
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依托微信张小龙演讲完成初稿</t>
-    <rPh sb="0" eb="1">
-      <t>yi'tuo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei'xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang'xiao'long</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yan'jiang</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chu'gao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,19 +672,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>die'dai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习几章</t>
-    <rPh sb="0" eb="1">
-      <t>xue'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'zhang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhang'jie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1262,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1315,22 +1260,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1338,22 +1281,20 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1361,16 +1302,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1383,22 +1324,20 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1406,10 +1345,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1423,17 +1362,15 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="3"/>
     </row>
@@ -1442,16 +1379,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1464,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1486,13 +1423,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1504,10 +1441,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1522,10 +1459,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1538,10 +1475,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1554,10 +1491,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1570,10 +1507,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1583,22 +1520,20 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -1664,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1672,23 +1607,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1698,23 +1633,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1724,23 +1659,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1750,23 +1685,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1776,23 +1711,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -1808,19 +1743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -767,6 +767,172 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块听听-彪悍一只猫-普通人快速崛起的十大狠招</t>
+    <rPh sb="5" eb="6">
+      <t>biao'han'yi'zhi'mao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pu'tong'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kuai'su</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jue'qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'da</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hen'zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听书</t>
+  </si>
+  <si>
+    <t>听书</t>
+    <rPh sb="0" eb="1">
+      <t>ting'shuo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块听听-李笑来-和时间做朋友的这十年</t>
+    <rPh sb="0" eb="1">
+      <t>yi'kuai'ting'ting</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li'xiao'lai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>peng'you</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi'nian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块听听-聊聊普通人的5个海外赚钱渠道</t>
+    <rPh sb="0" eb="1">
+      <t>yi'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ting'ting</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liao'liao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pu'tong'ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hai'wai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhuan'qian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qu'dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块听听-基于认知科学的4步知识管理法</t>
+    <rPh sb="0" eb="1">
+      <t>yi'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tin'ging</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke'xue</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi'shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>guan'li'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块听听-改变命运的演讲能力</t>
+    <rPh sb="0" eb="1">
+      <t>yi'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ting'ting</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai'bian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming'yun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan'jiang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>neng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习演讲</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan'jiang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,9 +1022,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -906,7 +1074,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -931,6 +1099,8 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1205,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G20:G21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,31 +1689,111 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>23</v>
+      <c r="A16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,16 +702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品设计_实践</t>
-    <rPh sb="2" eb="3">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <rPh sb="0" eb="1">
       <t>yi'jing</t>
@@ -932,6 +918,65 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>yan'jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品_实践</t>
+    <rPh sb="3" eb="4">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立目标</t>
+    <rPh sb="0" eb="1">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成创建</t>
+    <rPh sb="0" eb="1">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听了一半</t>
+    <rPh sb="0" eb="1">
+      <t>ting'le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'ban</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xing'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,9 +1067,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1074,7 +1127,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="34">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1101,6 +1154,14 @@
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1375,22 +1436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1401,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1416,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1427,19 +1488,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1448,42 +1509,46 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
@@ -1491,16 +1556,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -1512,13 +1577,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1529,13 +1594,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1546,19 +1611,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1568,19 +1633,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1590,16 +1655,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1608,13 +1673,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1626,29 +1691,33 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1658,13 +1727,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1674,13 +1743,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1690,13 +1759,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1706,13 +1775,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1722,13 +1791,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1738,13 +1807,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1754,13 +1823,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1770,16 +1839,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1792,13 +1861,185 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="I26" s="1">
+        <v>42376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="1">
+        <v>42704</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I30" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1806,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1831,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1846,10 +2087,10 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -1857,23 +2098,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -1883,23 +2124,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -1909,23 +2150,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -1935,23 +2176,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -1961,29 +2202,52 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
         <v>42707</v>
       </c>
       <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42376</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -964,19 +964,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>听了一半</t>
-    <rPh sb="0" eb="1">
-      <t>ting'le</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi'ban</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行中</t>
     <rPh sb="0" eb="1">
       <t>jin'xing'zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习睡眠，促进健康，提高效率</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shui'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu'jin'jian'kang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《睡个好觉》</t>
+    <rPh sb="1" eb="2">
+      <t>shui'ge'jiao'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠（V1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>shui'mian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,9 +1100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1127,7 +1167,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="41">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1162,6 +1202,13 @@
     <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1436,17 +1483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
@@ -1524,34 +1571,33 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1559,20 +1605,23 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1580,16 +1629,20 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1597,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1614,17 +1667,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1636,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1645,7 +1693,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1654,21 +1702,25 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1676,13 +1728,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1694,18 +1746,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="J12" s="3"/>
     </row>
@@ -1894,88 +1944,86 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
+      <c r="A26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26"/>
+        <v>80</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1">
+        <v>42744</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="I26" s="1">
-        <v>42376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
-        <v>42707</v>
+        <v>42739</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="I28" s="1">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1989,10 +2037,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2003,42 +2051,88 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
-        <v>42705</v>
+        <v>42707</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
+      <c r="A31" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="1">
         <v>42704</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I32" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -1007,9 +1007,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠（V1.0）</t>
+    <t>软件</t>
+    <rPh sb="0" eb="1">
+      <t>ruan'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markdown Here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品_实践（v1.0）</t>
+    <rPh sb="3" eb="4">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标（v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠（v1.0）</t>
     <rPh sb="0" eb="1">
       <t>shui'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <rPh sb="0" eb="1">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1100,9 +1135,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,7 +1205,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="44">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1209,6 +1247,9 @@
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1483,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1590,9 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="J2" s="3"/>
@@ -1578,26 +1621,27 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1605,23 +1649,20 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1629,20 +1670,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1650,13 +1687,15 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
@@ -1667,12 +1706,17 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1684,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1693,7 +1737,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1702,25 +1746,21 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1728,13 +1768,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1746,14 +1786,12 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1764,10 +1802,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1780,10 +1818,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1796,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1809,10 +1847,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -1825,13 +1863,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1841,13 +1879,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1857,13 +1895,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1872,16 +1910,18 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
+      <c r="A20" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1889,18 +1929,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="J21" s="3"/>
@@ -1944,103 +1982,103 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
+      <c r="A26" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
-        <v>42744</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>42750</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>13</v>
+      <c r="A27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
-        <v>42739</v>
+        <v>42744</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
+      <c r="A28" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28"/>
+        <v>32</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="1">
+        <v>42739</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="I29" s="1">
         <v>42737</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>6</v>
@@ -2056,20 +2094,20 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>19</v>
+      <c r="A31" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2079,25 +2117,25 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
+      <c r="A32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
-        <v>42705</v>
+        <v>42707</v>
       </c>
       <c r="J32" s="3"/>
     </row>
@@ -2106,10 +2144,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>6</v>
@@ -2120,19 +2158,42 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="1">
         <v>42704</v>
       </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I33" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -155,26 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商业（V1.0）</t>
-    <rPh sb="0" eb="1">
-      <t>shang'ye</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品-产品思维（V1.0）</t>
-    <rPh sb="0" eb="1">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chan'pin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>si'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
@@ -214,22 +194,6 @@
     <t>软件</t>
     <rPh sb="0" eb="1">
       <t>runa'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新生-七年就是一辈子</t>
-    <rPh sb="0" eb="1">
-      <t>xin'sheng</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qi'nian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jiu'shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi'bei'zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,17 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Photoshop（入门）</t>
-    <rPh sb="10" eb="11">
-      <t>ru'men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>知乎live-李笑来-我的读书经验</t>
     <rPh sb="0" eb="1">
       <t>zhi'hu</t>
@@ -960,10 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行中</t>
     <rPh sb="0" eb="1">
       <t>jin'xing'zhong</t>
@@ -1007,17 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件</t>
-    <rPh sb="0" eb="1">
-      <t>ruan'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Markdown Here</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品_实践（v1.0）</t>
     <rPh sb="3" eb="4">
       <t>shi'jian</t>
@@ -1045,6 +983,176 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《新生-七年就是一辈子》</t>
+    <rPh sb="1" eb="2">
+      <t>xin'sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qi'nian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jiu'shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'bei'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Mac</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Mactalk 人生元编程》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《毛泽东选集 第一卷》</t>
+    <rPh sb="1" eb="2">
+      <t>mao'ze'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di'yi'juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习思维方式</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋凉Photoshop视频</t>
+    <rPh sb="0" eb="1">
+      <t>qiu'liang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁连山Photoshop视频</t>
+    <rPh sb="12" eb="13">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品_理论（v1.0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业（v1.0）</t>
+    <rPh sb="0" eb="1">
+      <t>shang'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品_理论（v1.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法论迭代</t>
+    <rPh sb="0" eb="1">
+      <t>fang'fa'lun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李涛Photoshop视频</t>
+    <rPh sb="0" eb="1">
+      <t>li'tao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photoshop图像处理方案（v1.0）</t>
+    <rPh sb="9" eb="10">
+      <t>tu'xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿刘Photoshop一期视频</t>
+    <rPh sb="0" eb="1">
+      <t>a</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi'qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿刘Photoshop二期视频</t>
+    <rPh sb="0" eb="1">
+      <t>a</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>er</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿刘Photoshop三期视频</t>
+    <rPh sb="0" eb="1">
+      <t>a</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>san</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'pin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,9 +1243,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1205,7 +1352,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="83">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1250,6 +1397,45 @@
     <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1524,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,45 +1762,46 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1625,23 +1812,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1649,20 +1833,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1673,10 +1853,12 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
@@ -1687,15 +1869,18 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="1"/>
@@ -1706,16 +1891,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1728,18 +1913,18 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
@@ -1750,13 +1935,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1768,10 +1953,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1786,10 +1971,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1802,10 +1987,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1818,10 +2003,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1834,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1847,13 +2032,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1863,13 +2048,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1879,13 +2064,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1898,10 +2083,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1911,37 +2096,66 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
@@ -1983,168 +2197,165 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
-        <v>42750</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>42770</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
+      <c r="A27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
-        <v>42744</v>
+        <v>42770</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>13</v>
+      <c r="A28" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
-        <v>42739</v>
+        <v>42768</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
+      <c r="A29" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29"/>
       <c r="D29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="1">
-        <v>42737</v>
-      </c>
+        <v>42768</v>
+      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
-        <v>42707</v>
+        <v>42767</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
+      <c r="A31" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
-        <v>42707</v>
+        <v>42765</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>19</v>
+      <c r="A32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
-        <v>42707</v>
+        <v>42762</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>22</v>
+      <c r="A33" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>38</v>
@@ -2153,47 +2364,200 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
-        <v>42705</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>42750</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>22</v>
+      <c r="A34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
+        <v>42744</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="1">
+        <v>42739</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="I36" s="1">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="1">
         <v>42704</v>
       </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
+      <c r="J41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I33" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I40" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2253,23 +2617,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1">
@@ -2279,23 +2643,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1">
@@ -2305,23 +2669,23 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1">
@@ -2331,23 +2695,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="1">
@@ -2357,23 +2721,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1">
@@ -2383,22 +2747,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1">
         <v>42376</v>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
-    <sheet name="已完成" sheetId="2" r:id="rId2"/>
+    <sheet name="分享计划" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -158,25 +158,6 @@
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限注德州扑克理论与实践</t>
-    <rPh sb="0" eb="1">
-      <t>wu'xian'zhu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de'zhou'pu'ke</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>li'lun</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shi'jian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,16 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成学习</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xue'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>写作版本管理终极解决方案</t>
     <rPh sb="0" eb="1">
       <t>xie'zuo</t>
@@ -483,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新领域方法论建立</t>
     <rPh sb="0" eb="1">
       <t>xin</t>
@@ -523,12 +490,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>德州扑克理论入门</t>
-    <rPh sb="0" eb="1">
-      <t>de'zhou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>pu'ke</t>
+    <t>交互设计理论入门</t>
+    <rPh sb="0" eb="1">
+      <t>jiao'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>li'lun</t>
@@ -539,22 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交互设计理论入门</t>
-    <rPh sb="0" eb="1">
-      <t>jiao'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>li'lun</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ru'men</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习个人管理</t>
     <rPh sb="0" eb="1">
       <t>xue'xi</t>
@@ -612,16 +563,6 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成迭代</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>die'dai</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -875,41 +816,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品_实践</t>
-    <rPh sb="3" eb="4">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <rPh sb="0" eb="1">
+    <t>建立目标</t>
+    <rPh sb="0" eb="1">
+      <t>jian'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>mu'biao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立目标</t>
-    <rPh sb="0" eb="1">
-      <t>jian'li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mu'biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成创建</t>
-    <rPh sb="0" eb="1">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuang'jian</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1068,10 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品_理论（v1.1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方法论迭代</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'lun</t>
@@ -1153,6 +1066,160 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tony Kuyper亮度蒙版教程</t>
+    <rPh sb="11" eb="12">
+      <t>liang'du</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>meng'ban</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jioa'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://i.youku.com/i/UMzg0NjQ0MjEyMA==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIK Collection 学习</t>
+    <rPh sb="15" eb="16">
+      <t>xue'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人管理_理论（迭代）</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li'lun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品_理论（迭代）</t>
+    <rPh sb="6" eb="7">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于七年迭代</t>
+    <rPh sb="0" eb="1">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi'nian'jiu'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photoshop图像处理方案（迭代）</t>
+    <rPh sb="9" eb="10">
+      <t>tu'xiang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'li</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于阿刘二期、三期迭代</t>
+    <rPh sb="0" eb="1">
+      <t>ji'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>a'liu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>san'qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>die'dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠</t>
+    <rPh sb="0" eb="1">
+      <t>shui'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac入门</t>
+    <rPh sb="3" eb="4">
+      <t>ru'men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac软件</t>
+    <rPh sb="3" eb="4">
+      <t>ruan'jina</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios软件</t>
+    <rPh sb="3" eb="4">
+      <t>ruan'jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间管理工具</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jain</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习方法论</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'fa'lun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1243,9 +1310,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1352,7 +1430,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="94">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1436,6 +1514,17 @@
     <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1710,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1814,7 @@
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1765,19 +1854,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1789,76 +1878,87 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>95</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
@@ -1869,16 +1969,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1891,16 +1991,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1913,17 +2013,17 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1935,13 +2035,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1953,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -1971,10 +2071,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1987,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2003,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2019,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2032,13 +2132,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2048,13 +2148,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2064,13 +2164,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2083,10 +2183,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2096,19 +2196,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -2117,19 +2217,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2138,19 +2238,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2158,330 +2258,323 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
+      <c r="A23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="1">
-        <v>42770</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="1">
-        <v>42770</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
-        <v>42768</v>
+        <v>42776</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>20</v>
+      <c r="A29" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
-        <v>42768</v>
+        <v>42770</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
-        <v>42767</v>
+        <v>42770</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
+      <c r="A31" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
-        <v>42765</v>
+        <v>42768</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
+      <c r="A32" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
-        <v>42762</v>
+        <v>42768</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>14</v>
+      <c r="A33" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
-        <v>42750</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>42767</v>
+      </c>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
-        <v>42744</v>
+        <v>42765</v>
       </c>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>13</v>
+      <c r="A35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F35" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
-        <v>42739</v>
+        <v>42762</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36"/>
+        <v>69</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="1">
-        <v>42737</v>
-      </c>
+        <v>42750</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>20</v>
+      <c r="A37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="1">
-        <v>42707</v>
+        <v>42744</v>
       </c>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>20</v>
+      <c r="A38" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
-        <v>42707</v>
+        <v>42739</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -2490,74 +2583,142 @@
         <v>17</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C39"/>
       <c r="D39" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
       <c r="I39" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J39" s="3"/>
+        <v>42737</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="1">
-        <v>42705</v>
+        <v>42707</v>
       </c>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="1">
         <v>42704</v>
       </c>
-      <c r="J41" s="3"/>
+      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I40" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I43" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2566,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,196 +2744,38 @@
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1">
-        <v>42704</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1">
-        <v>42705</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="1">
-        <v>42376</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -158,16 +158,6 @@
     <t>方法论</t>
     <rPh sb="0" eb="1">
       <t>fang'fa'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计心理学</t>
-    <rPh sb="0" eb="1">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'li'xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,38 +596,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从零开始做运营</t>
-    <rPh sb="0" eb="1">
-      <t>cong'ling</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zuo</t>
+    <t>学习互联网运营</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu'lian'wnag</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>yun'ying</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习互联网运营</t>
-    <rPh sb="0" eb="1">
-      <t>xue'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hu'lian'wnag</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yun'ying</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营之光</t>
-    <rPh sb="0" eb="1">
-      <t>yun'ying'zhi'guang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -894,16 +861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <rPh sb="0" eb="1">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《新生-七年就是一辈子》</t>
     <rPh sb="1" eb="2">
       <t>xin'sheng</t>
@@ -944,19 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习思维方式</t>
-    <rPh sb="0" eb="1">
-      <t>xue'xi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>si'wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>fang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秋凉Photoshop视频</t>
     <rPh sb="0" eb="1">
       <t>qiu'liang</t>
@@ -995,16 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李涛Photoshop视频</t>
-    <rPh sb="0" eb="1">
-      <t>li'tao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi'pin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Photoshop图像处理方案（v1.0）</t>
     <rPh sb="9" eb="10">
       <t>tu'xiang</t>
@@ -1070,34 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tony Kuyper亮度蒙版教程</t>
-    <rPh sb="11" eb="12">
-      <t>liang'du</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>meng'ban</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jioa'cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://i.youku.com/i/UMzg0NjQ0MjEyMA==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIK Collection 学习</t>
-    <rPh sb="15" eb="16">
-      <t>xue'xi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人管理_理论（迭代）</t>
     <rPh sb="0" eb="1">
       <t>ge'ren</t>
@@ -1220,6 +1126,59 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>fang'fa'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《设计心理学》</t>
+    <rPh sb="1" eb="2">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin'li'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《运营之光》</t>
+    <rPh sb="1" eb="2">
+      <t>yun'ying'zhi'guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《从零开始做运营》</t>
+    <rPh sb="1" eb="2">
+      <t>cong'ling</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yun'ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《硅谷钢铁侠》</t>
+    <rPh sb="1" eb="2">
+      <t>gui'gu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gang'tie'xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习人性</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1310,9 +1269,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1430,7 +1400,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="105">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1525,6 +1495,17 @@
     <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1799,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1854,19 +1835,19 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1878,19 +1859,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1901,63 +1882,59 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1969,16 +1946,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1991,17 +1968,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2013,17 +1985,17 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2035,13 +2007,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2053,10 +2025,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -2071,10 +2043,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2087,10 +2059,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2103,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2119,10 +2091,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2132,13 +2104,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2148,13 +2120,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2164,13 +2136,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2183,10 +2155,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2195,426 +2167,440 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>42778</v>
+      </c>
       <c r="J23" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1">
+        <v>42778</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="1">
+        <v>42777</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="1">
+        <v>42776</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1">
+        <v>42770</v>
+      </c>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
+      <c r="A28" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
-        <v>42776</v>
+        <v>42770</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
-        <v>42770</v>
+        <v>42768</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
-        <v>42770</v>
+        <v>42768</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>14</v>
+      <c r="A31" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
-        <v>42768</v>
+        <v>42767</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>19</v>
+      <c r="A32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
-        <v>42768</v>
+        <v>42765</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>19</v>
+      <c r="A33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
-        <v>42767</v>
+        <v>42762</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
+      <c r="A34" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
-        <v>42765</v>
-      </c>
-      <c r="J34" s="3"/>
+        <v>42750</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
-        <v>42762</v>
+        <v>42744</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>14</v>
+      <c r="A36" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
-        <v>42750</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>42739</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>12</v>
+      <c r="A37" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C37"/>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
       <c r="I37" s="1">
-        <v>42744</v>
-      </c>
-      <c r="J37" s="3"/>
+        <v>42737</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>13</v>
+      <c r="A38" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
-        <v>42739</v>
+        <v>42707</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="I39" s="1">
-        <v>42737</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2625,100 +2611,54 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
-        <v>42707</v>
+        <v>42705</v>
       </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>17</v>
+      <c r="A42" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
-        <v>42707</v>
+        <v>42704</v>
       </c>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="1">
-        <v>42705</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="1">
-        <v>42704</v>
-      </c>
-      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I43" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I41" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2746,32 +2686,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="进行中" sheetId="1" r:id="rId1"/>
@@ -1269,9 +1269,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,7 +1403,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="108">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1506,6 +1509,9 @@
     <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1783,7 +1789,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1981,25 +1987,21 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2007,13 +2009,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2025,14 +2027,12 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2043,26 +2043,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2075,10 +2074,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2088,10 +2087,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -2104,13 +2103,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2120,13 +2119,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2136,13 +2135,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2151,58 +2150,63 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="1">
+        <v>42802</v>
+      </c>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">

--- a/个人管理表.xlsx
+++ b/个人管理表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>工作大类</t>
     <rPh sb="0" eb="1">
@@ -1179,6 +1179,43 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ren'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《时间简史》</t>
+    <rPh sb="1" eb="2">
+      <t>shi'jian'jian'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习思维方式</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《极致之美》</t>
+    <rPh sb="1" eb="2">
+      <t>ji'zhi'zhi'mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习摄影</t>
+    <rPh sb="0" eb="1">
+      <t>xue'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ying</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1269,9 +1306,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1403,7 +1441,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="109">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1512,6 +1550,7 @@
     <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1786,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1987,39 +2026,41 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
+      <c r="A9" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2027,12 +2068,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2043,22 +2086,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>40</v>
@@ -2074,26 +2120,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2103,13 +2148,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2122,7 +2167,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -2135,13 +2180,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2150,124 +2195,108 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1">
-        <v>42802</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1">
-        <v>42778</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="1">
-        <v>42778</v>
+        <v>42802</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>18</v>
+      <c r="A25" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>46</v>
@@ -2275,43 +2304,47 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="1">
-        <v>42777</v>
-      </c>
-      <c r="J25" s="3"/>
+        <v>42778</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
+      <c r="A26" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="1">
-        <v>42776</v>
+        <v>42778</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
+      <c r="A27" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -2319,45 +2352,43 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="1">
-        <v>42770</v>
+        <v>42777</v>
       </c>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>18</v>
+      <c r="A28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="1">
-        <v>42770</v>
+        <v>42776</v>
       </c>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>46</v>
@@ -2365,7 +2396,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="1">
-        <v>42768</v>
+        <v>42770</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -2374,52 +2405,56 @@
         <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="1">
-        <v>42768</v>
+        <v>42770</v>
       </c>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>18</v>
+      <c r="A31" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="1">
-        <v>42767</v>
+        <v>42768</v>
       </c>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
+      <c r="A32" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
@@ -2428,68 +2463,64 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="1">
-        <v>42765</v>
+        <v>42768</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
+      <c r="A33" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="1">
-        <v>42762</v>
+        <v>42767</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>14</v>
+      <c r="A34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="1">
-        <v>42750</v>
-      </c>
-      <c r="J34" s="1"/>
+        <v>42765</v>
+      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>46</v>
@@ -2497,114 +2528,114 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="1">
-        <v>42744</v>
+        <v>42762</v>
       </c>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>13</v>
+      <c r="A36" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="1">
-        <v>42739</v>
-      </c>
-      <c r="J36" s="3"/>
+        <v>42750</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>17</v>
+      <c r="A37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37"/>
+        <v>63</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="1">
-        <v>42737</v>
-      </c>
+        <v>42744</v>
+      </c>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>18</v>
+      <c r="A38" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="1">
-        <v>42707</v>
+        <v>42739</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="I39" s="1">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="1">
-        <v>42707</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2618,10 +2649,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>6</v>
@@ -2632,37 +2663,83 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="1">
-        <v>42705</v>
+        <v>42707</v>
       </c>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>18</v>
+      <c r="A42" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1">
+        <v>42707</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="1">
+        <v>42705</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="1">
         <v>42704</v>
       </c>
-      <c r="J42" s="3"/>
+      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I41" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
+    <hyperlink ref="I43" r:id="rId1" display="http://jira.netease.com/browse/KJDS-25324"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
